--- a/Dannye.xlsx
+++ b/Dannye.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34B4C9-D794-49D9-9F98-7044330C385F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B507EB4E-0F2A-42FF-B475-24BBAFA8999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="лист 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'лист 1'!$B$1:$O$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$2:$A$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -294,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -311,6 +313,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -652,9 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,37 +837,37 @@
       <c r="V2" s="1">
         <v>56</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="8">
         <f>V2/X2</f>
-        <v>0.73684210526315785</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="X2" s="1">
-        <f>170-X3</f>
-        <v>76</v>
+        <f>166-X3</f>
+        <v>75</v>
       </c>
       <c r="Y2" s="1">
         <f>SUMIF(E2:E171, "=0",J2:J171)</f>
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="Z2">
         <f>Y2/X2</f>
-        <v>17.184210526315791</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="AA2">
         <f>SUMIF(E2:E171, "=0", R2:R171)</f>
-        <v>36864</v>
+        <v>36828</v>
       </c>
       <c r="AB2">
         <f>AA2/X2</f>
-        <v>485.05263157894734</v>
+        <v>491.04</v>
       </c>
       <c r="AC2">
         <f>SUMIF(E2:E171,"=0",C2:C171)</f>
-        <v>3181</v>
+        <v>3144</v>
       </c>
       <c r="AD2">
         <f>AC2/X2</f>
-        <v>41.85526315789474</v>
+        <v>41.92</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -935,37 +938,37 @@
       <c r="V3" s="1">
         <v>53</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="8">
         <f>V3/X3</f>
-        <v>0.56382978723404253</v>
+        <v>0.58241758241758246</v>
       </c>
       <c r="X3" s="1">
         <f>SUM(E2:E171)</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Y3" s="1">
         <f>SUMIF(E2:E172, "=1",J2:J172)</f>
-        <v>1835</v>
+        <v>1722</v>
       </c>
       <c r="Z3">
         <f>Y3/X3</f>
-        <v>19.521276595744681</v>
+        <v>18.923076923076923</v>
       </c>
       <c r="AA3">
         <f>SUMIF(E2:E172, "=1", R2:R172)</f>
-        <v>57583</v>
+        <v>53308</v>
       </c>
       <c r="AB3">
         <f>AA3/X3</f>
-        <v>612.58510638297878</v>
+        <v>585.80219780219784</v>
       </c>
       <c r="AC3">
         <f>SUMIF(E2:E172,"=1",C2:C172)</f>
-        <v>4184</v>
+        <v>3997</v>
       </c>
       <c r="AD3">
         <f>AC3/X3</f>
-        <v>44.51063829787234</v>
+        <v>43.92307692307692</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -1191,19 +1194,19 @@
       </c>
       <c r="V6">
         <f>SUMIF(E2:E171, "=0",A2:A171)</f>
-        <v>2886260</v>
+        <v>2876260</v>
       </c>
       <c r="W6">
         <f>V6/X2</f>
-        <v>37977.105263157893</v>
+        <v>38350.133333333331</v>
       </c>
       <c r="X6">
         <f>SUMIF(E2:E171, "=0",I2:I171)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y6">
         <f>SUMIF(E2:E171, "=0",S2:S171)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z6">
         <f>SUMIF(E2:E171, "=0",K2:K171)</f>
@@ -1211,7 +1214,7 @@
       </c>
       <c r="AA6">
         <f>Z6/X2</f>
-        <v>0.76315789473684215</v>
+        <v>0.77333333333333332</v>
       </c>
       <c r="AB6">
         <f>SUMIF(E2:E171, "=0",M2:M171)</f>
@@ -1219,15 +1222,15 @@
       </c>
       <c r="AC6">
         <f>AB6/X2</f>
-        <v>0.27631578947368424</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AD6">
         <f>SUMIF(E2:E171, "=0",L2:L171)</f>
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AE6">
         <f>AD6/X2</f>
-        <v>2.4078947368421053</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -1297,15 +1300,15 @@
       </c>
       <c r="V7">
         <f>SUMIF(E2:E172, "=1",A2:A172)</f>
-        <v>2722350</v>
+        <v>2622350</v>
       </c>
       <c r="W7">
         <f>V7/X3</f>
-        <v>28961.170212765959</v>
+        <v>28817.032967032967</v>
       </c>
       <c r="X7">
         <f>SUMIF(E2:E172, "=1",I2:I172)</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y7">
         <f>SUMIF(E2:E172, "=1",S2:S172)</f>
@@ -1313,27 +1316,27 @@
       </c>
       <c r="Z7">
         <f>SUMIF(E2:E172, "=1",K2:K172)</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AA7">
         <f>Z7/X3</f>
-        <v>0.7021276595744681</v>
+        <v>0.70329670329670335</v>
       </c>
       <c r="AB7">
         <f>SUMIF(E2:E172, "=1",M2:M172)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC7">
         <f>AB7/X3</f>
-        <v>0.39361702127659576</v>
+        <v>0.39560439560439559</v>
       </c>
       <c r="AD7">
         <f>SUMIF(E2:E172, "=1",L2:L172)</f>
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AE7">
         <f>AD7/X3</f>
-        <v>2.4574468085106385</v>
+        <v>2.4505494505494507</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -1397,6 +1400,10 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="W8" s="8">
+        <f>W7/W6</f>
+        <v>0.7514193683907131</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -1460,6 +1467,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -1895,9 +1903,13 @@
         <f>AA14/X14</f>
         <v>27000</v>
       </c>
-      <c r="AB15">
-        <f t="shared" ref="AB15:AB55" si="4">AA15/Z15</f>
+      <c r="AB15" s="8">
+        <f>AA15/Z15</f>
         <v>0.82758620689655171</v>
+      </c>
+      <c r="AC15">
+        <f>MAX(AB14:AB56)</f>
+        <v>2.9333333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
@@ -1976,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="9">
-        <f t="shared" ref="Y16:Y26" si="5">(W16+X16)/270</f>
+        <f t="shared" ref="Y16:Y26" si="4">(W16+X16)/270</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="Z16">
@@ -1986,6 +1998,11 @@
       <c r="AA16">
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=2")</f>
         <v>0</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AC16">
+        <f>MIN(AB14:AB56)</f>
+        <v>0.47379483253588511</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
@@ -2063,6 +2080,7 @@
       <c r="AA17">
         <v>0</v>
       </c>
+      <c r="AB17" s="8"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -2140,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.4074074074074077E-3</v>
       </c>
       <c r="Z18">
@@ -2150,6 +2168,7 @@
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=3")</f>
         <v>73000</v>
       </c>
+      <c r="AB18" s="8"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -2228,6 +2247,7 @@
         <f>AA18/X18</f>
         <v>36500</v>
       </c>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -2305,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.7037037037037038E-3</v>
       </c>
       <c r="Z20">
@@ -2314,6 +2334,7 @@
       <c r="AA20">
         <v>0</v>
       </c>
+      <c r="AB20" s="8"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -2388,6 +2409,7 @@
       <c r="AA21">
         <v>0</v>
       </c>
+      <c r="AB21" s="8"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -2465,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.7037037037037038E-3</v>
       </c>
       <c r="Z22">
@@ -2474,6 +2496,7 @@
       <c r="AA22">
         <v>0</v>
       </c>
+      <c r="AB22" s="8"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -2551,6 +2574,7 @@
       <c r="AA23">
         <v>0</v>
       </c>
+      <c r="AB23" s="8"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -2628,17 +2652,18 @@
         <v>1</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8148148148148148E-2</v>
       </c>
       <c r="Z24">
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=0",$F$2:$F$171,"=6")</f>
-        <v>491000</v>
+        <v>481000</v>
       </c>
       <c r="AA24">
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=6")</f>
         <v>30000</v>
       </c>
+      <c r="AB24" s="8"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -2708,20 +2733,20 @@
       </c>
       <c r="X25" s="8">
         <f>X52/X3</f>
-        <v>1.0638297872340425E-2</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="Y25" s="9"/>
       <c r="Z25">
         <f>Z24/W24</f>
-        <v>40916.666666666664</v>
+        <v>40083.333333333336</v>
       </c>
       <c r="AA25">
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=6")</f>
         <v>30000</v>
       </c>
-      <c r="AB25">
-        <f t="shared" si="4"/>
-        <v>0.73319755600814673</v>
+      <c r="AB25" s="8">
+        <f t="shared" ref="AB15:AB55" si="5">AA25/Z25</f>
+        <v>0.74844074844074837</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
@@ -2800,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="Y26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.5185185185185183E-2</v>
       </c>
       <c r="Z26">
@@ -2811,6 +2836,7 @@
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=7")</f>
         <v>246000</v>
       </c>
+      <c r="AB26" s="8"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -2894,8 +2920,8 @@
         <f>AA26/X26</f>
         <v>30750</v>
       </c>
-      <c r="AB27">
-        <f t="shared" si="4"/>
+      <c r="AB27" s="8">
+        <f t="shared" si="5"/>
         <v>0.73358674215917041</v>
       </c>
     </row>
@@ -2986,62 +3012,12 @@
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=9")</f>
         <v>61000</v>
       </c>
+      <c r="AB28" s="8"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B29" s="1">
-        <v>21335</v>
-      </c>
-      <c r="C29" s="1">
-        <v>66</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>26900</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>35</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
-        <v>3</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P29" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="2"/>
-        <v>1225</v>
-      </c>
+      <c r="G29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="S29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3061,6 +3037,7 @@
         <f>AA28/X28</f>
         <v>20333.333333333332</v>
       </c>
+      <c r="AB29" s="8"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
@@ -3135,11 +3112,11 @@
       </c>
       <c r="X30">
         <f>SUMIF($F$2:$F$171, "=10",$E$2:$E$171)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y30" s="9">
         <f>(W30+X30)/270</f>
-        <v>4.4444444444444446E-2</v>
+        <v>4.0740740740740744E-2</v>
       </c>
       <c r="Z30">
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=0",$F$2:$F$171,"=10")</f>
@@ -3147,8 +3124,9 @@
       </c>
       <c r="AA30">
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=10")</f>
-        <v>372050</v>
-      </c>
+        <v>292050</v>
+      </c>
+      <c r="AB30" s="8"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -3218,7 +3196,7 @@
       </c>
       <c r="X31" s="8">
         <f>X30/94</f>
-        <v>0.10638297872340426</v>
+        <v>9.5744680851063829E-2</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31">
@@ -3227,11 +3205,11 @@
       </c>
       <c r="AA31">
         <f>AA30/X30</f>
-        <v>37205</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="4"/>
-        <v>0.73746283448959371</v>
+        <v>32450</v>
+      </c>
+      <c r="AB31" s="8">
+        <f t="shared" si="5"/>
+        <v>0.64321110009910798</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
@@ -3320,8 +3298,9 @@
       <c r="AA32">
         <v>44000</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40300</v>
       </c>
@@ -3392,7 +3371,7 @@
       </c>
       <c r="X33" s="8">
         <f>X52/X3</f>
-        <v>1.0638297872340425E-2</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33">
@@ -3402,12 +3381,12 @@
       <c r="AA33">
         <v>44000</v>
       </c>
-      <c r="AB33">
-        <f t="shared" si="4"/>
+      <c r="AB33" s="8">
+        <f t="shared" si="5"/>
         <v>1.346938775510204</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>50000</v>
       </c>
@@ -3494,8 +3473,9 @@
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=12")</f>
         <v>216000</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB34" s="8"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>11000</v>
       </c>
@@ -3577,12 +3557,12 @@
         <f>AA34/X34</f>
         <v>30857.142857142859</v>
       </c>
-      <c r="AB35">
-        <f t="shared" si="4"/>
+      <c r="AB35" s="8">
+        <f t="shared" si="5"/>
         <v>0.74354561101549055</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>27500</v>
       </c>
@@ -3669,8 +3649,9 @@
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=13")</f>
         <v>44000</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB36" s="8"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40000</v>
       </c>
@@ -3749,12 +3730,13 @@
         <f>AA36/X36</f>
         <v>22000</v>
       </c>
-      <c r="AB37">
-        <f t="shared" si="4"/>
+      <c r="AB37" s="8">
+        <f t="shared" si="5"/>
         <v>0.53921568627450978</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC37" s="10"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>30000</v>
       </c>
@@ -3827,11 +3809,11 @@
       </c>
       <c r="X38">
         <f>SUMIF($F$2:$F$171, "=14",$E$2:$E$171)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y38" s="9">
         <f>(W38+X38)/270</f>
-        <v>0.12222222222222222</v>
+        <v>0.11851851851851852</v>
       </c>
       <c r="Z38">
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=0",$F$2:$F$171,"=14")</f>
@@ -3839,10 +3821,11 @@
       </c>
       <c r="AA38">
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=14")</f>
-        <v>717308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+        <v>707308</v>
+      </c>
+      <c r="AB38" s="8"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>30000</v>
       </c>
@@ -3910,7 +3893,7 @@
       </c>
       <c r="X39" s="8">
         <f>X38/94</f>
-        <v>0.27659574468085107</v>
+        <v>0.26595744680851063</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="Z39">
@@ -3919,14 +3902,15 @@
       </c>
       <c r="AA39">
         <f>AA38/X38</f>
-        <v>27588.76923076923</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="4"/>
-        <v>0.46201288185498707</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+        <v>28292.32</v>
+      </c>
+      <c r="AB39" s="8">
+        <f t="shared" si="5"/>
+        <v>0.47379483253588511</v>
+      </c>
+      <c r="AC39" s="10"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>20000</v>
       </c>
@@ -4013,8 +3997,9 @@
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=15")</f>
         <v>71000</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB40" s="8"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>12000</v>
       </c>
@@ -4096,12 +4081,12 @@
         <f>AA40/X40</f>
         <v>35500</v>
       </c>
-      <c r="AB41">
-        <f t="shared" si="4"/>
+      <c r="AB41" s="8">
+        <f t="shared" si="5"/>
         <v>2.84</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>28000</v>
       </c>
@@ -4187,8 +4172,9 @@
       <c r="AA42">
         <v>44000</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB42" s="8"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>25000</v>
       </c>
@@ -4269,12 +4255,12 @@
       <c r="AA43">
         <v>44000</v>
       </c>
-      <c r="AB43">
-        <f t="shared" si="4"/>
+      <c r="AB43" s="8">
+        <f>AA43/Z43</f>
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>30000</v>
       </c>
@@ -4361,8 +4347,9 @@
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=17")</f>
         <v>196500</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB44" s="8"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>15000</v>
       </c>
@@ -4426,7 +4413,7 @@
       </c>
       <c r="W45" s="8">
         <f>W44/X2</f>
-        <v>0.11842105263157894</v>
+        <v>0.12</v>
       </c>
       <c r="X45" s="8">
         <f>X44/94</f>
@@ -4441,12 +4428,12 @@
         <f>AA44/X44</f>
         <v>28071.428571428572</v>
       </c>
-      <c r="AB45">
-        <f t="shared" si="4"/>
+      <c r="AB45" s="8">
+        <f t="shared" si="5"/>
         <v>1.0021533405111351</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40000</v>
       </c>
@@ -4531,8 +4518,9 @@
       <c r="AA46">
         <v>52000</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB46" s="8"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>10400</v>
       </c>
@@ -4605,8 +4593,9 @@
       <c r="AA47">
         <v>52000</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB47" s="8"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>68000</v>
       </c>
@@ -4688,6 +4677,7 @@
       <c r="AA48">
         <v>0</v>
       </c>
+      <c r="AB48" s="8"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
@@ -4765,6 +4755,7 @@
       <c r="AA49">
         <v>0</v>
       </c>
+      <c r="AB49" s="8"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -4849,6 +4840,7 @@
         <f>SUMIFS($A$2:$A$171,$E$2:$E$171,"=1",$F$2:$F$171,"=26")</f>
         <v>58500</v>
       </c>
+      <c r="AB50" s="8"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
@@ -4927,6 +4919,7 @@
         <f>AA50/X50</f>
         <v>19500</v>
       </c>
+      <c r="AB51" s="8"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -5010,6 +5003,7 @@
       <c r="AA52">
         <v>57200</v>
       </c>
+      <c r="AB52" s="8"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -5078,11 +5072,11 @@
       </c>
       <c r="W53" s="8">
         <f>W52/X2</f>
-        <v>1.3157894736842105E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="X53" s="8">
         <f>X52/X3</f>
-        <v>1.0638297872340425E-2</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53">
@@ -5091,8 +5085,8 @@
       <c r="AA53">
         <v>57200</v>
       </c>
-      <c r="AB53">
-        <f t="shared" si="4"/>
+      <c r="AB53" s="8">
+        <f t="shared" si="5"/>
         <v>1.9066666666666667</v>
       </c>
     </row>
@@ -5181,6 +5175,7 @@
       <c r="AA54">
         <v>29000</v>
       </c>
+      <c r="AB54" s="8"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -5246,11 +5241,11 @@
       </c>
       <c r="W55" s="8">
         <f>W54/X2</f>
-        <v>1.3157894736842105E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="X55" s="8">
         <f>X52/X3</f>
-        <v>1.0638297872340425E-2</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="Z55">
         <v>18000</v>
@@ -5258,8 +5253,8 @@
       <c r="AA55">
         <v>29000</v>
       </c>
-      <c r="AB55">
-        <f t="shared" si="4"/>
+      <c r="AB55" s="8">
+        <f t="shared" si="5"/>
         <v>1.6111111111111112</v>
       </c>
     </row>
@@ -8363,67 +8358,9 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>80000</v>
-      </c>
-      <c r="B106" s="1">
-        <v>50122</v>
-      </c>
-      <c r="C106" s="1">
-        <v>61</v>
-      </c>
-      <c r="D106" s="1">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1">
-        <v>10</v>
-      </c>
-      <c r="G106" s="1">
-        <v>96600</v>
-      </c>
-      <c r="H106" s="1">
-        <v>1</v>
-      </c>
-      <c r="I106" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J106" s="1">
-        <v>41</v>
-      </c>
-      <c r="K106" s="1">
-        <v>0</v>
-      </c>
-      <c r="L106" s="1">
-        <v>3</v>
-      </c>
-      <c r="M106" s="1">
-        <v>0</v>
-      </c>
-      <c r="N106" s="1">
-        <v>3</v>
-      </c>
-      <c r="O106" s="1">
-        <v>80000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R106">
-        <f t="shared" si="8"/>
-        <v>1681</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="G106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
@@ -9419,67 +9356,9 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B123" s="1">
-        <v>51457</v>
-      </c>
-      <c r="C123" s="1">
-        <v>37</v>
-      </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-      <c r="F123" s="1">
-        <v>6</v>
-      </c>
-      <c r="G123" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H123" s="1">
-        <v>3</v>
-      </c>
-      <c r="I123" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J123" s="1">
-        <v>6</v>
-      </c>
-      <c r="K123" s="1">
-        <v>0</v>
-      </c>
-      <c r="L123" s="1">
-        <v>3</v>
-      </c>
-      <c r="M123" s="1">
-        <v>0</v>
-      </c>
-      <c r="N123" s="1">
-        <v>2</v>
-      </c>
-      <c r="O123" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P123" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q123">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R123">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="S123">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+      <c r="G123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
@@ -9914,67 +9793,9 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B131" s="1">
-        <v>52790</v>
-      </c>
-      <c r="C131" s="1">
-        <v>60</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-      <c r="F131" s="1">
-        <v>14</v>
-      </c>
-      <c r="G131" s="1">
-        <v>20300</v>
-      </c>
-      <c r="H131" s="1">
-        <v>2</v>
-      </c>
-      <c r="I131" s="1">
-        <f t="shared" ref="I131:I171" si="10">IF(H131&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J131" s="1">
-        <v>37</v>
-      </c>
-      <c r="K131" s="1">
-        <v>1</v>
-      </c>
-      <c r="L131" s="1">
-        <v>2</v>
-      </c>
-      <c r="M131" s="1">
-        <v>1</v>
-      </c>
-      <c r="N131" s="1">
-        <v>1</v>
-      </c>
-      <c r="O131" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P131" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" ref="Q131:Q171" si="11">IF(P131&gt;9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <f t="shared" ref="R131:R171" si="12">J131*J131</f>
-        <v>1369</v>
-      </c>
-      <c r="S131">
-        <f t="shared" ref="S131:S171" si="13">I131*D131</f>
-        <v>0</v>
-      </c>
+      <c r="G131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
@@ -10002,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I131:I171" si="10">IF(H132&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="J132" s="1">
@@ -10027,15 +9848,15 @@
         <v>2</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q131:Q171" si="11">IF(P132&gt;9,1,0)</f>
         <v>0</v>
       </c>
       <c r="R132">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="R131:R171" si="12">J132*J132</f>
         <v>0</v>
       </c>
       <c r="S132">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="S131:S171" si="13">I132*D132</f>
         <v>1</v>
       </c>
     </row>
@@ -12434,4 +12255,874 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106E575-E7B4-4B65-B62D-CA3EE71D4714}">
+  <dimension ref="A2:A171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>10709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>19668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>19669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>19670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>19691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>19696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>19697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>19726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>19732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>19749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>19793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>19794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>19810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>19836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>19851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>19862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>19876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>19889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19890</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>19942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>19954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>19955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>19958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>19960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>21314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>21335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>21344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>21396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>21406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>21410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>22756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>22769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>24075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>24076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>24077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>24082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>24084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>24982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>28622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>28624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>28625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>28631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>28637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>28638</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>30033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>30067</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>30079</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>30099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>31285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>31286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>31287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>31293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>31330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>31333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>32261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>32274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>39270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>39271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>39305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>39311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>39354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>39359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>39994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>40033</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>43762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>43767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>43814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>43818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>47490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>47492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>47495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>47496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>47504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>47509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>47514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>47515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>47527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>47544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>47545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>47546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>47548</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>47597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>47598</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>47601</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>47606</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>47612</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>47613</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>47614</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>47631</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>47644</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>47662</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>47670</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>47688</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>50122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>50129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>50134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>50152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>50157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>50168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>50169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>50186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>50192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>50196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>50199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>50205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>50207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>50209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>50210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>50225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>51457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>51463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>51465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>51478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>51483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>51486</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>51487</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>52789</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>52790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>52794</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>52799</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>52805</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>52811</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>52812</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>52814</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>52815</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>52822</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>52823</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>52824</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>52831</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>54003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>54007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>54010</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>54011</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>54013</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>54015</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>54016</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>54017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>54027</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>54028</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>54033</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>54275</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>55910</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>56128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>56698</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>56701</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>56705</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>56706</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>56707</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>56712</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>56716</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>56717</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>56952</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>56953</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>56954</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>56957</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>56966</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>56970</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:A171" xr:uid="{8106E575-E7B4-4B65-B62D-CA3EE71D4714}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A171">
+      <sortCondition ref="A2:A171"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>